--- a/Data/Output/Incidents.xlsx
+++ b/Data/Output/Incidents.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\cruzl\Documents\UiPath\Proceso1_LALA\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088396BB-AD7B-421D-A1C4-F84C07E944A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7056EE-DA60-42D4-854A-5B0FFB4FD4F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-120" yWindow="330" windowWidth="24240" windowHeight="13290" firstSheet="0" activeTab="0" xr2:uid="{CD3CAB56-BE71-4485-8FBE-BEAF51E98128}"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="191029"/>
@@ -26,33 +26,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <x:si>
-    <x:t>UUID FACTURA</x:t>
+    <x:t>UUID Invoice</x:t>
   </x:si>
   <x:si>
-    <x:t>FECHA</x:t>
+    <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>POSIBLE ERROR</x:t>
+    <x:t>Mossible Mistake</x:t>
   </x:si>
   <x:si>
     <x:t>F0AA9C09-CC84-46A9-8328-A086C6AB9C65</x:t>
   </x:si>
   <x:si>
-    <x:t>12/04/2020 14:33:12</x:t>
+    <x:t>12/05/2020 18:49:22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- Fecha</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/05/2020 18:49:39</x:t>
   </x:si>
   <x:si>
     <x:t>- Fecha- UUID- Importe- Folio</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12/04/2020 14:33:22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12/04/2020 14:33:30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>- Fecha</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -115,7 +112,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="8">
+  <x:cellStyleXfs count="7">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
@@ -130,9 +127,6 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -484,7 +478,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C1333"/>
+  <x:dimension ref="A1:C1332"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
       <x:pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
@@ -528,19 +522,12 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C3" s="6" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="A4" s="9" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B4" s="10" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C4" s="6" t="s">
-        <x:v>8</x:v>
-      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <x:c r="A4" s="9" t="s"/>
+      <x:c r="B4" s="10" t="s"/>
     </x:row>
     <x:row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A5" s="9" t="s"/>
@@ -5853,10 +5840,6 @@
     <x:row r="1332" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A1332" s="9" t="s"/>
       <x:c r="B1332" s="10" t="s"/>
-    </x:row>
-    <x:row r="1333" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="A1333" s="9" t="s"/>
-      <x:c r="B1333" s="10" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
